--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="223">
   <si>
     <t>DISEASE</t>
   </si>
@@ -637,6 +637,54 @@
   </si>
   <si>
     <t>NECK PAIN</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -689,7 +737,68 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -979,1484 +1088,2296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="N2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" t="s">
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="F9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" t="s">
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="F10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" t="s">
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="F11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" t="s">
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="F12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" t="s">
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="F13" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" t="s">
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="F14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="C21" t="s">
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" t="s">
         <v>154</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="F22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="F23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="F24" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="D25" t="s">
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="F25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="D26" t="s">
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="F26" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="D27" t="s">
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="F27" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" t="s">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" t="s">
         <v>57</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" t="s">
         <v>201</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" t="s">
         <v>53</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="D35" t="s">
+    <row r="35" spans="1:14">
+      <c r="F35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="D36" t="s">
+    <row r="36" spans="1:14">
+      <c r="F36" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="D37" t="s">
+    <row r="37" spans="1:14">
+      <c r="F37" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="D38" t="s">
+    <row r="38" spans="1:14">
+      <c r="F38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="D39" t="s">
+    <row r="39" spans="1:14">
+      <c r="F39" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="D40" t="s">
+    <row r="40" spans="1:14">
+      <c r="F40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" t="s">
         <v>58</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:14">
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" t="s">
         <v>59</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:14">
       <c r="B44" t="s">
         <v>17</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" t="s">
         <v>61</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:14">
       <c r="B45" t="s">
         <v>18</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
         <v>41</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:14">
       <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" t="s">
         <v>62</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:14">
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" t="s">
         <v>41</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:14">
       <c r="B48" t="s">
         <v>19</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" t="s">
         <v>53</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="D49" t="s">
+    <row r="49" spans="1:6">
+      <c r="F49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="D50" t="s">
+    <row r="50" spans="1:6">
+      <c r="F50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="D51" t="s">
+    <row r="51" spans="1:6">
+      <c r="F51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="D52" t="s">
+    <row r="52" spans="1:6">
+      <c r="F52" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="D53" t="s">
+    <row r="53" spans="1:6">
+      <c r="F53" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="D54" t="s">
+    <row r="54" spans="1:6">
+      <c r="F54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="D55" t="s">
+    <row r="55" spans="1:6">
+      <c r="F55" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="D56" t="s">
+    <row r="56" spans="1:6">
+      <c r="F56" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>20</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
         <v>63</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:6">
       <c r="B59" t="s">
         <v>16</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" t="s">
         <v>68</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:6">
       <c r="B60" t="s">
         <v>18</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" t="s">
         <v>41</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:6">
       <c r="B61" t="s">
         <v>22</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" t="s">
         <v>64</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:6">
       <c r="B62" t="s">
         <v>17</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" t="s">
         <v>65</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:6">
       <c r="B63" t="s">
         <v>14</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" t="s">
         <v>66</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:6">
       <c r="B64" t="s">
         <v>23</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" t="s">
         <v>67</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:6">
       <c r="B65" t="s">
         <v>24</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" t="s">
         <v>69</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="C66" t="s">
+    <row r="66" spans="1:6">
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" t="s">
         <v>173</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="D67" t="s">
+    <row r="67" spans="1:6">
+      <c r="F67" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="D68" t="s">
+    <row r="68" spans="1:6">
+      <c r="F68" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>25</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" t="s">
         <v>70</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:6">
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" t="s">
         <v>71</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:6">
       <c r="B72" t="s">
         <v>27</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" t="s">
         <v>53</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:6">
       <c r="B73" t="s">
         <v>9</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" t="s">
         <v>77</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:6">
       <c r="B74" t="s">
         <v>28</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>213</v>
+      </c>
+      <c r="E74" t="s">
         <v>73</v>
       </c>
-      <c r="D74" t="s">
+      <c r="F74" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:6">
       <c r="B75" t="s">
         <v>29</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" t="s">
         <v>74</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:6">
       <c r="B76" t="s">
         <v>10</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" t="s">
         <v>75</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:6">
       <c r="B77" t="s">
         <v>7</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" t="s">
         <v>76</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="D78" t="s">
+    <row r="78" spans="1:6">
+      <c r="F78" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="D79" t="s">
+    <row r="79" spans="1:6">
+      <c r="F79" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>30</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" t="s">
         <v>78</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:6">
       <c r="B82" t="s">
         <v>19</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" t="s">
         <v>79</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:6">
       <c r="B83" t="s">
         <v>31</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" t="s">
         <v>80</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:6">
       <c r="B84" t="s">
         <v>7</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" t="s">
         <v>81</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:6">
       <c r="B85" t="s">
         <v>14</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" t="s">
         <v>82</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:6">
       <c r="B86" t="s">
         <v>32</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" t="s">
         <v>83</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:6">
       <c r="B87" t="s">
         <v>17</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" t="s">
         <v>172</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="D88" t="s">
+    <row r="88" spans="1:6">
+      <c r="F88" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>33</v>
       </c>
       <c r="B90" t="s">
         <v>24</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" t="s">
         <v>84</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:6">
       <c r="B91" t="s">
         <v>23</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>215</v>
+      </c>
+      <c r="E91" t="s">
         <v>86</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:6">
       <c r="B92" t="s">
         <v>17</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>215</v>
+      </c>
+      <c r="E92" t="s">
         <v>87</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:6">
       <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>215</v>
+      </c>
+      <c r="E93" t="s">
         <v>85</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:6">
       <c r="B94" t="s">
         <v>6</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:6">
       <c r="B95" t="s">
         <v>18</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:6">
       <c r="B96" t="s">
         <v>7</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:6">
       <c r="B97" t="s">
         <v>10</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="D98" t="s">
+    <row r="98" spans="1:6">
+      <c r="F98" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>34</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" t="s">
         <v>32</v>
       </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:6">
       <c r="B101" t="s">
         <v>10</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>216</v>
+      </c>
+      <c r="E101" t="s">
         <v>41</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:6">
       <c r="B102" t="s">
         <v>7</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" t="s">
         <v>88</v>
       </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:6">
       <c r="B103" t="s">
         <v>16</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>216</v>
+      </c>
+      <c r="E103" t="s">
         <v>89</v>
       </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:6">
       <c r="B104" t="s">
         <v>18</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" t="s">
         <v>90</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:6">
       <c r="B105" t="s">
         <v>31</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" t="s">
         <v>91</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:6">
       <c r="B106" t="s">
         <v>17</v>
       </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="D107" t="s">
+    <row r="107" spans="1:6">
+      <c r="F107" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>35</v>
       </c>
       <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>217</v>
+      </c>
+      <c r="E109" t="s">
         <v>92</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:6">
       <c r="B110" t="s">
         <v>10</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>217</v>
+      </c>
+      <c r="E110" t="s">
         <v>93</v>
       </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:6">
       <c r="B111" t="s">
         <v>7</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>217</v>
+      </c>
+      <c r="E111" t="s">
         <v>94</v>
       </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:6">
       <c r="B112" t="s">
         <v>16</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>217</v>
+      </c>
+      <c r="E112" t="s">
         <v>95</v>
       </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:6">
       <c r="B113" t="s">
         <v>18</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>217</v>
+      </c>
+      <c r="E113" t="s">
         <v>96</v>
       </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:6">
       <c r="B114" t="s">
         <v>31</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>217</v>
+      </c>
+      <c r="E114" t="s">
         <v>41</v>
       </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:6">
       <c r="B115" t="s">
         <v>17</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>217</v>
+      </c>
+      <c r="E115" t="s">
         <v>97</v>
       </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:6">
       <c r="B116" t="s">
         <v>19</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>217</v>
+      </c>
+      <c r="E116" t="s">
         <v>98</v>
       </c>
-      <c r="D116" t="s">
+      <c r="F116" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:6">
       <c r="B117" t="s">
         <v>36</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>217</v>
+      </c>
+      <c r="E117" t="s">
         <v>99</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:6">
       <c r="B118" t="s">
         <v>14</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="D119" t="s">
+    <row r="119" spans="1:6">
+      <c r="F119" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="D120" t="s">
+    <row r="120" spans="1:6">
+      <c r="F120" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>37</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>218</v>
+      </c>
+      <c r="E122" t="s">
         <v>100</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:6">
       <c r="B123" t="s">
         <v>10</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>218</v>
+      </c>
+      <c r="E123" t="s">
         <v>41</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:6">
       <c r="B124" t="s">
         <v>38</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>218</v>
+      </c>
+      <c r="E124" t="s">
         <v>101</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:6">
       <c r="B125" t="s">
         <v>39</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>218</v>
+      </c>
+      <c r="E125" t="s">
         <v>102</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:6">
       <c r="B126" t="s">
         <v>16</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>218</v>
+      </c>
+      <c r="E126" t="s">
         <v>103</v>
       </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:6">
       <c r="B127" t="s">
         <v>18</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>218</v>
+      </c>
+      <c r="E127" t="s">
         <v>104</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:6">
       <c r="B128" t="s">
         <v>14</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" t="s">
         <v>105</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="D129" t="s">
+    <row r="129" spans="1:6">
+      <c r="F129" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>40</v>
       </c>
       <c r="B131" t="s">
         <v>14</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>219</v>
+      </c>
+      <c r="E131" t="s">
         <v>106</v>
       </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:6">
       <c r="B132" t="s">
         <v>7</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>219</v>
+      </c>
+      <c r="E132" t="s">
         <v>107</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:6">
       <c r="B133" t="s">
         <v>17</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133" t="s">
+        <v>219</v>
+      </c>
+      <c r="E133" t="s">
         <v>108</v>
       </c>
-      <c r="D133" t="s">
+      <c r="F133" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:6">
       <c r="B134" t="s">
         <v>16</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>219</v>
+      </c>
+      <c r="E134" t="s">
         <v>109</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:6">
       <c r="B135" t="s">
         <v>19</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>219</v>
+      </c>
+      <c r="E135" t="s">
         <v>76</v>
       </c>
-      <c r="D135" t="s">
+      <c r="F135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:6">
       <c r="B136" t="s">
         <v>18</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>219</v>
+      </c>
+      <c r="E136" t="s">
         <v>110</v>
       </c>
-      <c r="D136" t="s">
+      <c r="F136" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="D137" t="s">
+    <row r="137" spans="1:6">
+      <c r="F137" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="D138" t="s">
+    <row r="138" spans="1:6">
+      <c r="F138" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>41</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>220</v>
+      </c>
+      <c r="E140" t="s">
         <v>112</v>
       </c>
-      <c r="D140" t="s">
+      <c r="F140" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:6">
       <c r="B141" t="s">
         <v>10</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>220</v>
+      </c>
+      <c r="E141" t="s">
         <v>113</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:6">
       <c r="B142" t="s">
         <v>16</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142" t="s">
+        <v>220</v>
+      </c>
+      <c r="E142" t="s">
         <v>114</v>
       </c>
-      <c r="D142" t="s">
+      <c r="F142" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:6">
       <c r="B143" t="s">
         <v>17</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>220</v>
+      </c>
+      <c r="E143" t="s">
         <v>85</v>
       </c>
-      <c r="D143" t="s">
+      <c r="F143" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:6">
       <c r="B144" t="s">
         <v>21</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>220</v>
+      </c>
+      <c r="E144" t="s">
         <v>89</v>
       </c>
-      <c r="D144" t="s">
+      <c r="F144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:6">
       <c r="B145" t="s">
         <v>14</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>220</v>
+      </c>
+      <c r="E145" t="s">
         <v>115</v>
       </c>
-      <c r="D145" t="s">
+      <c r="F145" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:6">
       <c r="B146" t="s">
         <v>42</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>220</v>
+      </c>
+      <c r="E146" t="s">
         <v>116</v>
       </c>
-      <c r="D146" t="s">
+      <c r="F146" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:6">
       <c r="B147" t="s">
         <v>43</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>220</v>
+      </c>
+      <c r="E147" t="s">
         <v>117</v>
       </c>
-      <c r="D147" t="s">
+      <c r="F147" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="C148" t="s">
+    <row r="148" spans="1:6">
+      <c r="C148">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>220</v>
+      </c>
+      <c r="E148" t="s">
         <v>118</v>
       </c>
-      <c r="D148" t="s">
+      <c r="F148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="C149" t="s">
+    <row r="149" spans="1:6">
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>220</v>
+      </c>
+      <c r="E149" t="s">
         <v>119</v>
       </c>
-      <c r="D149" t="s">
+      <c r="F149" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="C150" t="s">
+    <row r="150" spans="1:6">
+      <c r="C150">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>220</v>
+      </c>
+      <c r="E150" t="s">
         <v>120</v>
       </c>
-      <c r="D150" t="s">
+      <c r="F150" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="D151" t="s">
+    <row r="151" spans="1:6">
+      <c r="F151" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="D152" t="s">
+    <row r="152" spans="1:6">
+      <c r="F152" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>44</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" t="s">
         <v>121</v>
       </c>
-      <c r="D154" t="s">
+      <c r="F154" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:6">
       <c r="B155" t="s">
         <v>14</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" t="s">
         <v>122</v>
       </c>
-      <c r="D155" t="s">
+      <c r="F155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:6">
       <c r="B156" t="s">
         <v>16</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" t="s">
         <v>6</v>
       </c>
-      <c r="D156" t="s">
+      <c r="F156" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:6">
       <c r="B157" t="s">
         <v>17</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>221</v>
+      </c>
+      <c r="E157" t="s">
         <v>123</v>
       </c>
-      <c r="D157" t="s">
+      <c r="F157" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:6">
       <c r="B158" t="s">
         <v>42</v>
       </c>
-      <c r="D158" t="s">
+      <c r="F158" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:6">
       <c r="B159" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:6">
       <c r="B160" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>111</v>
       </c>
       <c r="B162" t="s">
         <v>124</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>222</v>
+      </c>
+      <c r="E162" t="s">
         <v>127</v>
       </c>
-      <c r="D162" t="s">
+      <c r="F162" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:6">
       <c r="B163" t="s">
         <v>125</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>222</v>
+      </c>
+      <c r="E163" t="s">
         <v>128</v>
       </c>
-      <c r="D163" t="s">
+      <c r="F163" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:6">
       <c r="B164" t="s">
         <v>9</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>222</v>
+      </c>
+      <c r="E164" t="s">
         <v>106</v>
       </c>
-      <c r="D164" t="s">
+      <c r="F164" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:6">
       <c r="B165" t="s">
         <v>8</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>222</v>
+      </c>
+      <c r="E165" t="s">
         <v>129</v>
       </c>
-      <c r="D165" t="s">
+      <c r="F165" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:6">
       <c r="B166" t="s">
         <v>36</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>222</v>
+      </c>
+      <c r="E166" t="s">
         <v>41</v>
       </c>
-      <c r="D166" t="s">
+      <c r="F166" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:6">
       <c r="B167" t="s">
         <v>14</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>222</v>
+      </c>
+      <c r="E167" t="s">
         <v>40</v>
       </c>
-      <c r="D167" t="s">
+      <c r="F167" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:6">
       <c r="B168" t="s">
         <v>126</v>
       </c>
-      <c r="D168" t="s">
+      <c r="F168" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:6">
       <c r="B169" t="s">
         <v>42</v>
       </c>
-      <c r="D169" t="s">
+      <c r="F169" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:6">
       <c r="B170" t="s">
         <v>6</v>
       </c>
-      <c r="D170" t="s">
+      <c r="F170" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="D171" t="s">
+    <row r="171" spans="1:6">
+      <c r="F171" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N24">
+    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21:N30">
+    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31:N33">
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N33 N172:N1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
